--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2043079.402603308</v>
+        <v>2147259.037054379</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>50.67650313406747</v>
+        <v>59.5102257804752</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.817218682477</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +825,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -835,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>140.4591068616333</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>103.3923192846785</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>159.8087673531392</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>238.6591887249599</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1107,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>135.9114955019773</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>166.0509296744557</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>352.6059908745367</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>149.0897904115736</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>165.5172270997742</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,10 +1353,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>22.18096189443673</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>45.16086499484859</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>41.01175877060142</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,10 +1824,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>207.0967504439648</v>
       </c>
       <c r="W16" t="n">
-        <v>26.07046444232026</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>104.795004917596</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>179.0209726907674</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2132,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2245,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>28.23631843387909</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="24">
@@ -2482,16 +2484,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>199.6886312571994</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2716,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>35.41770597126623</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>21.63824106824953</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>190.5819130177809</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3196,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>139.9371893537546</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,16 +3243,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>104.7777418077832</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3430,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3472,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>125.8152577453153</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>60.11729550773637</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3563,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3597,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3667,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>174.1401868743384</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3834,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3904,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>106.3048907942253</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4141,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>18.7084378797695</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,13 +4194,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>39.17658763086867</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.509627919559</v>
+        <v>1642.972675199008</v>
       </c>
       <c r="C2" t="n">
-        <v>1329.547110979147</v>
+        <v>1274.010158258596</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,7 +4342,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919559</v>
+        <v>2029.572515263129</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
         <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
         <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2174.098823536668</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="C4" t="n">
-        <v>2174.098823536668</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D4" t="n">
-        <v>2023.982184124332</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E4" t="n">
-        <v>1876.069090541939</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541939</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193525</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>2822.322864763051</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>2533.219997888694</v>
+        <v>1473.819589696725</v>
       </c>
       <c r="V4" t="n">
-        <v>2278.535509682808</v>
+        <v>1473.819589696725</v>
       </c>
       <c r="W4" t="n">
-        <v>2174.098823536668</v>
+        <v>1184.402419659765</v>
       </c>
       <c r="X4" t="n">
-        <v>2174.098823536668</v>
+        <v>956.4128687617472</v>
       </c>
       <c r="Y4" t="n">
-        <v>2174.098823536668</v>
+        <v>956.4128687617472</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1537.086630593157</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2972.837166339057</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.0549803959803</v>
+        <v>844.171363847817</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959803</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4755,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1508.493867781961</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1253.809379576074</v>
       </c>
       <c r="W7" t="n">
-        <v>712.4960243697501</v>
+        <v>1253.809379576074</v>
       </c>
       <c r="X7" t="n">
-        <v>712.4960243697501</v>
+        <v>1025.819828678057</v>
       </c>
       <c r="Y7" t="n">
-        <v>491.70344522622</v>
+        <v>1025.819828678057</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1528.069587875905</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3064.719405245788</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2811.188928519624</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2811.188928519624</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
-        <v>2811.188928519624</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X8" t="n">
-        <v>2437.723170258544</v>
+        <v>2304.808759915838</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.583838282732</v>
+        <v>1914.669427940026</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>332.773976541745</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E10" t="n">
         <v>163.8377936138381</v>
@@ -4957,7 +4959,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1568.419545632719</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1279.316678758363</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1024.632190552476</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>735.2150205155149</v>
+        <v>1079.585839578021</v>
       </c>
       <c r="X10" t="n">
-        <v>735.2150205155149</v>
+        <v>851.5962886800039</v>
       </c>
       <c r="Y10" t="n">
-        <v>514.4224413719847</v>
+        <v>630.8037095364738</v>
       </c>
     </row>
     <row r="11">
@@ -5033,28 +5035,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5063,25 +5065,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,16 +5129,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1098.667160263527</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5315,7 +5317,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5461,16 +5463,16 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1755.431557602304</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W16" t="n">
         <v>1729.097755135313</v>
@@ -5510,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5601,19 +5603,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2199.088114488453</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1979.486649511395</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1690.411422855592</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1435.726934649706</v>
       </c>
       <c r="W19" t="n">
-        <v>1653.302830625878</v>
+        <v>1146.309764612745</v>
       </c>
       <c r="X19" t="n">
-        <v>1425.313279727861</v>
+        <v>918.3202137147275</v>
       </c>
       <c r="Y19" t="n">
-        <v>1204.520700584331</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5746,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,25 +5773,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5963,61 +5965,61 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466572</v>
@@ -6032,7 +6034,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6072,16 +6074,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.4894946679489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6300,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>129.5921236250085</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>129.5921236250085</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>2876.560776129205</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>3473.939263755757</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>3195.647281583948</v>
       </c>
       <c r="C31" t="n">
-        <v>580.8993044876688</v>
+        <v>3026.711098656041</v>
       </c>
       <c r="D31" t="n">
-        <v>430.7826650753331</v>
+        <v>2876.594459243706</v>
       </c>
       <c r="E31" t="n">
-        <v>282.8695714929399</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>3195.647281583948</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>3195.647281583948</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6780,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.777212765616</v>
+        <v>3342.176094240981</v>
       </c>
       <c r="C34" t="n">
-        <v>782.8410298377091</v>
+        <v>3173.239911313074</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>3023.123271900738</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>2875.210178318345</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.320230820435</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.124131535315</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.624977674364</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V34" t="n">
-        <v>1871.624977674364</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W34" t="n">
-        <v>1582.207807637403</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="X34" t="n">
-        <v>1354.218256739386</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.425677595856</v>
+        <v>3523.82455907122</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>636.6680198981028</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>467.7318369701959</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>317.6151975578602</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578602</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7120,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2319.876964645598</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2100.27549966854</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1811.200273012738</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V37" t="n">
-        <v>1556.515784806851</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W37" t="n">
-        <v>1267.09861476989</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>1039.109063871873</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>818.3164847283425</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7165,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7196,19 +7198,19 @@
         <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615664</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334537</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673286</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.54608366783</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694715</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740623</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385789</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>2233.355914590556</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118211</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>2383.002557118211</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>2878.32816333397</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>3475.706650960522</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>4103.304614515128</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>4230.570347950411</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>4654.193497445479</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445479</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301204</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022978</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566163</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.23547033442</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606219</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400686</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635732</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7360,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2021.163366826619</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7409,10 +7411,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7427,10 +7429,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7448,13 +7450,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7490,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>1802.364528928005</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>2878.334542886496</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>2709.398359958589</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>2709.398359958589</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>2561.485266376196</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>2561.485266376196</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376196</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>2419.773435218394</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866308</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>3388.154264430191</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>3280.775586860266</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>3059.983007716736</v>
       </c>
     </row>
     <row r="44">
@@ -7634,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,7 +7721,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
         <v>95.58405025273902</v>
@@ -7731,16 +7733,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>904.461687384549</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.840175011101</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.853600740068</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121611</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998254</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998254</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F46" t="n">
-        <v>194.8007783998254</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7825,31 +7827,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.91737983266</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854703</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648816</v>
+        <v>1648.813543116455</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611855</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138379</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703078</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
   </sheetData>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>180.5487903941886</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>177.5728945814934</v>
       </c>
     </row>
     <row r="14">
@@ -23701,7 +23703,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>45.04089287986324</v>
       </c>
       <c r="W16" t="n">
-        <v>260.4525338942707</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>75.03697526434127</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>2.005313310877199</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.89602209489536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>45.8481303472993</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>123.7828069546817</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>35.12774237125629</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25084,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.3575234924692836</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>181.406732581461</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25318,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25360,19 +25362,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>55.21102825632927</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>226.0671788815078</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>43.26526345294988</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>119.4047645948119</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26029,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>146.8157004124994</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26080,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>212.9610556929593</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>838304.2560524782</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>838304.2560524782</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.2560524782</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.2560524782</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524779</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524779</v>
       </c>
     </row>
     <row r="16">
@@ -26320,7 +26322,7 @@
         <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752543</v>
@@ -26332,22 +26334,22 @@
         <v>585181.2847752543</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752548</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26433,10 +26435,10 @@
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
@@ -26451,7 +26453,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680589</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680582</v>
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-932387.4141255373</v>
+        <v>-932387.4141255375</v>
       </c>
       <c r="C6" t="n">
         <v>396357.3316020552</v>
@@ -26528,34 +26530,34 @@
         <v>396357.3316020551</v>
       </c>
       <c r="E6" t="n">
-        <v>146869.3169271861</v>
+        <v>146869.316927186</v>
       </c>
       <c r="F6" t="n">
-        <v>472281.7787345414</v>
+        <v>472281.7787345416</v>
       </c>
       <c r="G6" t="n">
-        <v>472281.7787345414</v>
+        <v>472281.7787345413</v>
       </c>
       <c r="H6" t="n">
         <v>472281.7787345414</v>
       </c>
       <c r="I6" t="n">
+        <v>472281.7787345413</v>
+      </c>
+      <c r="J6" t="n">
+        <v>254750.5763372637</v>
+      </c>
+      <c r="K6" t="n">
         <v>472281.7787345414</v>
       </c>
-      <c r="J6" t="n">
-        <v>254750.5763372642</v>
-      </c>
-      <c r="K6" t="n">
-        <v>472281.7787345415</v>
-      </c>
       <c r="L6" t="n">
-        <v>472281.7787345416</v>
+        <v>472281.7787345413</v>
       </c>
       <c r="M6" t="n">
-        <v>387226.7507990296</v>
+        <v>387226.7507990295</v>
       </c>
       <c r="N6" t="n">
-        <v>472281.7787345416</v>
+        <v>472281.7787345417</v>
       </c>
       <c r="O6" t="n">
         <v>472281.7787345418</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>304.0065384866155</v>
+        <v>295.1728158402078</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27585,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>145.7527313439796</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>183.1306790519125</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>222.9250743103414</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>131.0719119535091</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27827,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>150.3003427036356</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>120.4720686621353</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>12.66690089647085</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>54.82817972804656</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>54.03172217639496</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>264.3420364421543</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28864,7 +28866,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29104,7 +29106,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="24">
@@ -30274,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30520,7 +30522,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30639,7 +30641,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>173.3851399586643</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32072,34 +32074,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>742.935485982477</v>
       </c>
       <c r="O15" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32321,7 +32323,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32332,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,13 +32554,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>477.8500485393217</v>
       </c>
       <c r="M21" t="n">
-        <v>583.1096135868578</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32570,7 +32572,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32707,7 +32709,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32792,10 +32794,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>547.6926421044561</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,7 +32806,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33020,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33035,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>501.1621040024322</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33263,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>659.9976957396707</v>
       </c>
       <c r="O30" t="n">
-        <v>370.9642309107746</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33286,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33500,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>574.6535388222619</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33523,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,28 +33739,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33970,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>333.9544784328825</v>
+        <v>271.1474903386692</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34210,37 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>338.1309585028985</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>472.9736279168705</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817591</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,25 +34447,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>467.1465236515255</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>31.25110603664601</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>611.5937738991437</v>
       </c>
       <c r="O15" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,7 +35971,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35980,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,13 +36202,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>339.2956687594475</v>
       </c>
       <c r="M21" t="n">
-        <v>440.9755796648395</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36218,7 +36220,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36355,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36440,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>405.5586081824378</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,7 +36454,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>369.8203919190989</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36911,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="O30" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36934,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37148,19 +37150,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>432.0572943778175</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37171,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>191.358233988438</v>
+        <v>128.5512458942248</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396416</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>206.7892464195652</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>330.3773834724261</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294937</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367786</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>328.5921438716513</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998953</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2147259.037054379</v>
+        <v>2143246.427040386</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>228.0656025585486</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>59.5102257804752</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -712,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.817218682477</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>140.4591068616333</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>159.8087673531392</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>195.5565936082896</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>20.84901245549809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>135.9114955019773</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>352.6059908745367</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>214.8185470786312</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>54.26003672910142</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>22.18096189443673</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>15.09910835322229</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.01175877060142</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,10 +1666,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>94.91529601901398</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>207.0967504439648</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>59.96838802184509</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>179.0209726907674</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2140,13 +2140,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>28.23631843387909</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>20.43112068613158</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>35.41770597126623</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>96.02642072444083</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>190.5819130177809</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3198,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>104.7777418077832</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9371893537546</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,16 +3243,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3432,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>60.11729550773637</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>46.29306638367343</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>174.1401868743384</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>265.9042934353369</v>
       </c>
       <c r="X43" t="n">
-        <v>106.3048907942253</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,13 +4194,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>39.17658763086867</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1642.972675199008</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1274.010158258596</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524209</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.572515263129</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y2" t="n">
-        <v>2029.572515263129</v>
+        <v>2277.953133796418</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>774.7644039315074</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>774.7644039315074</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
         <v>624.6477645191717</v>
@@ -4479,13 +4479,13 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1473.819589696725</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1473.819589696725</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W4" t="n">
-        <v>1184.402419659765</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>956.4128687617472</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>956.4128687617472</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1537.086630593157</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.124113652745</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.50962791956</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>844.171363847817</v>
+        <v>1015.34761180106</v>
       </c>
       <c r="C7" t="n">
-        <v>675.2351809199101</v>
+        <v>846.4114288731531</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>696.2947894608174</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>548.3816958784242</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>401.4917483805139</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>233.7889117552328</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>87.5717249730906</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4758,19 +4758,19 @@
         <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1508.493867781961</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V7" t="n">
-        <v>1253.809379576074</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W7" t="n">
-        <v>1253.809379576074</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="X7" t="n">
-        <v>1025.819828678057</v>
+        <v>1417.78865577483</v>
       </c>
       <c r="Y7" t="n">
-        <v>1025.819828678057</v>
+        <v>1196.9960766313</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1528.069587875905</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="C8" t="n">
-        <v>1171.901920325867</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3108.617390216615</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>2777.554502873044</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176918</v>
+        <v>2424.78584760293</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915838</v>
+        <v>2051.32008934185</v>
       </c>
       <c r="Y8" t="n">
-        <v>1914.669427940026</v>
+        <v>1661.180757366038</v>
       </c>
     </row>
     <row r="9">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>630.8037095364738</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C10" t="n">
-        <v>461.8675266085669</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D10" t="n">
-        <v>311.7508871962312</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1872.48643018031</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1617.801941974423</v>
       </c>
       <c r="W10" t="n">
-        <v>1079.585839578021</v>
+        <v>1328.384771937462</v>
       </c>
       <c r="X10" t="n">
-        <v>851.5962886800039</v>
+        <v>1100.395221039445</v>
       </c>
       <c r="Y10" t="n">
-        <v>630.8037095364738</v>
+        <v>879.6026418959145</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5053,40 +5053,40 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1418.449741049605</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y13" t="n">
-        <v>874.8686257536381</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="14">
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5305,16 +5305,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>484.8243144841098</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>980.1499206998684</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2351.089047197418</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="17">
@@ -5497,40 +5497,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>697.5276345711974</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711974</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2199.088114488453</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1979.486649511395</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1690.411422855592</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1435.726934649706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1146.309764612745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>918.3202137147275</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>697.5276345711974</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,10 +5788,10 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>264.0500279773688</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>264.0500279773688</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5983,55 +5983,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6126,25 +6126,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362687</v>
@@ -6308,25 +6308,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101285</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>296.7882229101285</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>129.5921236250085</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>129.5921236250085</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3473.939263755757</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3997.308687575531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3195.647281583948</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C31" t="n">
-        <v>3026.711098656041</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>2876.594459243706</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661313</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X31" t="n">
-        <v>3195.647281583948</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y31" t="n">
-        <v>3195.647281583948</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="32">
@@ -6688,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.176094240981</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.239911313074</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.123271900738</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.210178318345</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.320230820435</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.124131535315</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420637</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.61713821475</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W34" t="n">
-        <v>3744.61713821475</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X34" t="n">
-        <v>3744.61713821475</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y34" t="n">
-        <v>3523.82455907122</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6955,10 +6955,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.097755135313</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="38">
@@ -7165,43 +7165,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615664</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334537</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673286</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.54608366783</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694715</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740623</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385789</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2233.355914590556</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>2383.002557118211</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>2383.002557118211</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>2878.32816333397</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>3475.706650960522</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>4103.304614515128</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>4230.570347950411</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4654.193497445479</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4654.193497445479</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398592</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301204</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.415660022978</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566163</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.23547033442</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606219</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400686</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635732</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>557.5558870561822</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797183</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797183</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2021.163366826619</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1732.088140170817</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1477.40365196493</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1187.986481927969</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>959.9969310299521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>739.2043518864219</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7405,25 +7405,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7438,22 +7438,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928005</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2878.334542886496</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C43" t="n">
-        <v>2709.398359958589</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D43" t="n">
-        <v>2709.398359958589</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E43" t="n">
-        <v>2561.485266376196</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>2561.485266376196</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376196</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218394</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866308</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.932614305899</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.33114932884</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673038</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467151</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430191</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X43" t="n">
-        <v>3280.775586860266</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y43" t="n">
-        <v>3059.983007716736</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7645,31 +7645,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,7 +7724,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7733,16 +7733,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>904.461687384549</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1501.840175011101</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>788.0191461778176</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851784</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7809,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7842,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1648.813543116455</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1359.396373079494</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>271.4238899833687</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>177.5728945814934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>86.11098998263061</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>45.04089287986324</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>119.8635921600922</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>2.005313310877199</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>124.9899273367997</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>45.8481303472993</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>190.1580536648033</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>35.12774237125629</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25086,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>40.64330621514807</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3575234924692836</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>226.0671788815078</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>43.26526345294988</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>20.61870490125415</v>
       </c>
       <c r="X43" t="n">
-        <v>119.4047645948119</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>212.9610556929593</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>838304.2560524782</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>838304.2560524782</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>838304.2560524779</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>838304.2560524779</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
   </sheetData>
@@ -26316,34 +26316,34 @@
         <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
+        <v>595255.2831516054</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516056</v>
       </c>
-      <c r="D2" t="n">
-        <v>595255.2831516055</v>
-      </c>
       <c r="E2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="H2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="I2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="G2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752541</v>
-      </c>
       <c r="K2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="L2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752543</v>
@@ -26352,10 +26352,10 @@
         <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752548</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="D4" t="n">
         <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680587</v>
       </c>
       <c r="F4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
+        <v>11776.97621680587</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11776.97621680587</v>
+      </c>
+      <c r="I4" t="n">
         <v>11776.97621680582</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11776.97621680588</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11776.97621680588</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
@@ -26453,7 +26453,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680589</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680582</v>
@@ -26524,46 +26524,46 @@
         <v>-932387.4141255375</v>
       </c>
       <c r="C6" t="n">
+        <v>396357.331602055</v>
+      </c>
+      <c r="D6" t="n">
         <v>396357.3316020552</v>
       </c>
-      <c r="D6" t="n">
-        <v>396357.3316020551</v>
-      </c>
       <c r="E6" t="n">
-        <v>146869.316927186</v>
+        <v>146521.9376728297</v>
       </c>
       <c r="F6" t="n">
-        <v>472281.7787345416</v>
+        <v>471934.3994801842</v>
       </c>
       <c r="G6" t="n">
-        <v>472281.7787345413</v>
+        <v>471934.3994801844</v>
       </c>
       <c r="H6" t="n">
-        <v>472281.7787345414</v>
+        <v>471934.3994801845</v>
       </c>
       <c r="I6" t="n">
-        <v>472281.7787345413</v>
+        <v>471934.3994801844</v>
       </c>
       <c r="J6" t="n">
-        <v>254750.5763372637</v>
+        <v>254403.1970829069</v>
       </c>
       <c r="K6" t="n">
-        <v>472281.7787345414</v>
+        <v>471934.3994801846</v>
       </c>
       <c r="L6" t="n">
-        <v>472281.7787345413</v>
+        <v>471934.3994801845</v>
       </c>
       <c r="M6" t="n">
-        <v>387226.7507990295</v>
+        <v>386879.3715446727</v>
       </c>
       <c r="N6" t="n">
-        <v>472281.7787345417</v>
+        <v>471934.3994801845</v>
       </c>
       <c r="O6" t="n">
-        <v>472281.7787345418</v>
+        <v>471934.3994801842</v>
       </c>
       <c r="P6" t="n">
-        <v>472281.7787345414</v>
+        <v>471934.3994801845</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26798,7 +26798,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>154.6682391049319</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>295.1728158402078</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>145.7527313439796</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>48.93987327667864</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>222.9250743103414</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>159.1264480123934</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>75.50340795433999</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>150.3003427036356</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>12.66690089647085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>36.17662488027079</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>231.9518014765115</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>264.3420364421543</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28860,13 +28860,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29106,7 +29106,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30522,7 +30522,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30641,7 +30641,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>173.3851399586643</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>379.855198271042</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>742.935485982477</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,25 +32557,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>477.8500485393217</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,19 +32785,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>547.6926421044561</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32809,7 +32809,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33028,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>535.8585467435948</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>659.9976957396707</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,10 +33417,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,22 +33508,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,10 +33745,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33757,10 +33757,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,37 +33973,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>271.1474903386692</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,28 +34207,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>472.9736279168705</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817591</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,25 +34447,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>467.1465236515255</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>31.25110603664601</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>242.013759296683</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>611.5937738991437</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>339.2956687594475</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>405.5586081824378</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>393.2623022991504</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>528.6559836563374</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,10 +37065,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,22 +37156,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,10 +37393,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37405,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>128.5512458942248</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>330.3773834724261</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326294937</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367786</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>328.5921438716513</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2143246.427040386</v>
+        <v>2145006.957343171</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>228.0656025585486</v>
+        <v>228.0656025585473</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>195.5565936082896</v>
+        <v>195.5565936082891</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>20.84901245549809</v>
+        <v>20.84901245549811</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>21.82230259246357</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>214.8185470786312</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>272.0245629064107</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>15.09910835322229</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>94.91529601901398</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>59.96838802184509</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453149</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>120.7871326503968</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>96.02642072444083</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>93.07916359105417</v>
       </c>
     </row>
     <row r="32">
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>104.7777418077832</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>46.29306638367343</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>95.81917536083702</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>265.9042934353369</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796418</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X2" t="n">
-        <v>2277.953133796418</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y2" t="n">
-        <v>2277.953133796418</v>
+        <v>2277.953133796416</v>
       </c>
     </row>
     <row r="3">
@@ -4385,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4479,13 +4479,13 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
         <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535338</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535338</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="6">
@@ -4637,16 +4637,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4722,7 +4722,7 @@
         <v>87.5717249730906</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1274.580917301916</v>
+        <v>1285.591601078694</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1285.591601078694</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>927.3259024719439</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>541.5376498736996</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>130.551745084092</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3108.617390216615</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V8" t="n">
-        <v>2777.554502873044</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.78584760293</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.32008934185</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.180757366038</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4953,13 +4953,13 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5129,10 +5129,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.0191461778176</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W13" t="n">
-        <v>1418.449741049605</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X13" t="n">
-        <v>1190.460190151587</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y13" t="n">
-        <v>969.6676110080573</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="14">
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5305,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>484.8243144841098</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>980.1499206998684</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
         <v>175.9033664000583</v>
@@ -5433,16 +5433,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2351.089047197418</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2131.487582220359</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,31 +5512,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>634.9279362553159</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>634.9279362553159</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578601</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,25 +5767,25 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5986,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6077,10 +6077,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>215.8238677453423</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>215.8238677453423</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>705.9324428257312</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1880.464695940366</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1625.780207734479</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1336.363037697518</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1108.373486799501</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>887.5809076559709</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6691,13 +6691,13 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1057.613315601761</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>888.6771326738537</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>738.560493261518</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>590.6473996791249</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1460.05435957553</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1239.261780432</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,46 +6919,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7025,10 +7025,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7131,16 +7131,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7262,10 +7262,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7356,13 +7356,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
         <v>1746.193029533436</v>
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7499,10 +7499,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>784.5811134804959</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C43" t="n">
-        <v>615.644930552589</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D43" t="n">
-        <v>465.5282911402533</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E43" t="n">
         <v>317.6151975578602</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2100.27549966854</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W43" t="n">
-        <v>1415.011708352283</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X43" t="n">
-        <v>1187.022157454266</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y43" t="n">
-        <v>966.2295783107356</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7736,10 +7736,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7785,22 +7785,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>14.15991148283342</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>271.4238899833687</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>86.11098998263061</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>119.8635921600922</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>39.70888054695396</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>44.73700564187209</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>190.1580536648033</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>40.64330621514807</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>205.8445769401546</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>20.61870490125415</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.2560524782</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.2560524782</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524782</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>838304.2560524782</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.256052478</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="F2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="F2" t="n">
-        <v>585181.2847752541</v>
-      </c>
       <c r="G2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="H2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="I2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="J2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752545</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752547</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
         <v>11776.97621680582</v>
@@ -26435,7 +26435,7 @@
         <v>11776.97621680587</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
@@ -26444,7 +26444,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680587</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
@@ -26527,43 +26527,43 @@
         <v>396357.331602055</v>
       </c>
       <c r="D6" t="n">
-        <v>396357.3316020552</v>
+        <v>396357.331602055</v>
       </c>
       <c r="E6" t="n">
-        <v>146521.9376728297</v>
+        <v>146834.5790017504</v>
       </c>
       <c r="F6" t="n">
-        <v>471934.3994801842</v>
+        <v>472247.0408091057</v>
       </c>
       <c r="G6" t="n">
-        <v>471934.3994801844</v>
+        <v>472247.0408091057</v>
       </c>
       <c r="H6" t="n">
-        <v>471934.3994801845</v>
+        <v>472247.0408091056</v>
       </c>
       <c r="I6" t="n">
-        <v>471934.3994801844</v>
+        <v>472247.0408091057</v>
       </c>
       <c r="J6" t="n">
-        <v>254403.1970829069</v>
+        <v>254715.8384118284</v>
       </c>
       <c r="K6" t="n">
-        <v>471934.3994801846</v>
+        <v>472247.0408091058</v>
       </c>
       <c r="L6" t="n">
-        <v>471934.3994801845</v>
+        <v>472247.0408091057</v>
       </c>
       <c r="M6" t="n">
-        <v>386879.3715446727</v>
+        <v>387192.0128735941</v>
       </c>
       <c r="N6" t="n">
-        <v>471934.3994801845</v>
+        <v>472247.040809106</v>
       </c>
       <c r="O6" t="n">
-        <v>471934.3994801842</v>
+        <v>472247.0408091058</v>
       </c>
       <c r="P6" t="n">
-        <v>471934.3994801845</v>
+        <v>472247.040809106</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>154.6682391049319</v>
+        <v>154.6682391049333</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>159.1264480123934</v>
+        <v>159.1264480123938</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>389.0994230609899</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27906,10 +27906,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>36.17662488027079</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28860,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,25 +32077,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>379.855198271042</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -32967,7 +32967,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33417,10 +33417,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33745,13 +33745,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33982,13 +33982,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34219,13 +34219,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34456,13 +34456,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>242.013759296683</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -37065,10 +37065,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37393,13 +37393,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
